--- a/BillAppDocs/UsersUploadData.xlsx
+++ b/BillAppDocs/UsersUploadData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDir\Walee\Bill-Website-Walee\BillAppDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EE158A-4724-492F-A641-D9B1184D4049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A35EF4-6424-4AE8-93C3-3BA5398D9924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BillAppDocs/UsersUploadData.xlsx
+++ b/BillAppDocs/UsersUploadData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDir\Walee\Bill-Website-Walee\BillAppDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A35EF4-6424-4AE8-93C3-3BA5398D9924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098E2F07-F547-4B17-9B8A-EF6A6CB12494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>meterType</t>
   </si>
   <si>
-    <t>Zaid</t>
-  </si>
-  <si>
     <t>Residential</t>
   </si>
   <si>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>H-12</t>
+  </si>
+  <si>
+    <t>Zaidi</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,22 +412,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/BillAppDocs/UsersUploadData.xlsx
+++ b/BillAppDocs/UsersUploadData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDir\Walee\Bill-Website-Walee\BillAppDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098E2F07-F547-4B17-9B8A-EF6A6CB12494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102EEFAA-8BCD-4D1A-929A-FE7F1BE97687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,7 +378,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/BillAppDocs/UsersUploadData.xlsx
+++ b/BillAppDocs/UsersUploadData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDir\Walee\Bill-Website-Walee\BillAppDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102EEFAA-8BCD-4D1A-929A-FE7F1BE97687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552F6658-5D3E-43AD-BFB3-D12E20ADE0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
     <t>H-12</t>
   </si>
   <si>
-    <t>Zaidi</t>
+    <t>Ali</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,7 +412,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>

--- a/BillAppDocs/UsersUploadData.xlsx
+++ b/BillAppDocs/UsersUploadData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDir\Walee\Bill-Website-Walee\BillAppDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552F6658-5D3E-43AD-BFB3-D12E20ADE0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BECDA51-41BF-4262-83B5-6A7BF40DFA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,10 +51,10 @@
     <t>Digital</t>
   </si>
   <si>
-    <t>H-12</t>
-  </si>
-  <si>
     <t>Ali</t>
+  </si>
+  <si>
+    <t>H-12 Sector</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,10 +415,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>

--- a/BillAppDocs/UsersUploadData.xlsx
+++ b/BillAppDocs/UsersUploadData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDir\Walee\Bill-Website-Walee\BillAppDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BECDA51-41BF-4262-83B5-6A7BF40DFA67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BD35F3-D1A5-4047-9CD8-43BE8C667CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
     <t>Ali</t>
   </si>
   <si>
-    <t>H-12 Sector</t>
+    <t>H-12 Sector, ISB</t>
   </si>
 </sst>
 </file>
